--- a/Music/Playlists.xlsx
+++ b/Music/Playlists.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="1">
+  <si>
+    <t>A</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +62,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,37 +356,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Music/Playlists.xlsx
+++ b/Music/Playlists.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="All Tracks" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>A</t>
+    <t>Track #</t>
+  </si>
+  <si>
+    <t>Track Title</t>
   </si>
 </sst>
 </file>
@@ -357,297 +358,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B7"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
